--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -426,10 +426,58 @@
         <v>34</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>rakha@gmail.com</v>
+      </c>
+      <c r="B4" t="str">
+        <v>898989</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>rakha@gmail.com</v>
+      </c>
+      <c r="B5" t="str">
+        <v>898989</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>rakha@gmail.com</v>
+      </c>
+      <c r="B6" t="str">
+        <v>898989</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>rakha@gmail.com</v>
+      </c>
+      <c r="B7" t="str">
+        <v>898989</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>rakha@gmail.com</v>
+      </c>
+      <c r="B8" t="str">
+        <v>898989</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>gioLOK</v>
+      </c>
+      <c r="B9" t="str">
+        <v>NJy</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B9"/>
   </ignoredErrors>
 </worksheet>
 </file>